--- a/biology/Mycologie/Entomophaga/Entomophaga.xlsx
+++ b/biology/Mycologie/Entomophaga/Entomophaga.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Entomophaga est un genre de champignons entomopathogènes de l'ordre des Entomophthorales. 
 Parmi les espèces les plus connues figurent Entomophaga grylli et Entomophaga maimaiga, qui infectent les Caelifera (criquets) et les Lymantria respectivement.
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Index Fungorum                                      (14 mai 2014)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Index Fungorum                                      (14 mai 2014) :
 Entomophaga antochae S. Keller 2007
 Entomophaga aulicae (E. Reichardt) Humber 1984
 Entomophaga batkoi (Bałazy) S. Keller 1988
@@ -535,7 +549,7 @@
 Entomophaga thuricensis S. Keller 2007
 Entomophaga tipulae (Fresen.) Humber 1989
 Entomophaga transitans (S. Keller) A.E. Hajek &amp; Eilenberg 2003
-Selon NCBI  (14 mai 2014)[2] :
+Selon NCBI  (14 mai 2014) :
 Entomophaga aulicae
 Entomophaga calopteni
 Entomophaga conglomerata
